--- a/Docs/DanhSachCongViec.xlsx
+++ b/Docs/DanhSachCongViec.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Education\HUS\Công nghệ phần mềm\Examon\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Danh sách phân công công việc</t>
   </si>
@@ -54,13 +54,37 @@
   </si>
   <si>
     <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Nguyễn Đông Hưng</t>
+  </si>
+  <si>
+    <t>donghungfeng</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Trần Thị Thu Trang</t>
+  </si>
+  <si>
+    <t>h3d-trangtt</t>
+  </si>
+  <si>
+    <t>Trần Thanh Tài</t>
+  </si>
+  <si>
+    <t>taitran36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,8 +100,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,6 +132,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -109,12 +166,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,48 +472,80 @@
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
